--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2002,28 +2002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>492.2529171162074</v>
+        <v>578.5012542164708</v>
       </c>
       <c r="AB2" t="n">
-        <v>673.5221578644137</v>
+        <v>791.5309376930827</v>
       </c>
       <c r="AC2" t="n">
-        <v>609.2421484121189</v>
+        <v>715.9883359203027</v>
       </c>
       <c r="AD2" t="n">
-        <v>492252.9171162074</v>
+        <v>578501.2542164708</v>
       </c>
       <c r="AE2" t="n">
-        <v>673522.1578644137</v>
+        <v>791530.9376930827</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.615833425181042e-06</v>
+        <v>2.329489548388639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.80787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>609242.1484121189</v>
+        <v>715988.3359203027</v>
       </c>
     </row>
     <row r="3">
@@ -2108,28 +2108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.4297174780917</v>
+        <v>362.692699845884</v>
       </c>
       <c r="AB3" t="n">
-        <v>413.7976817110119</v>
+        <v>496.2521528017717</v>
       </c>
       <c r="AC3" t="n">
-        <v>374.305411737206</v>
+        <v>448.8905438326406</v>
       </c>
       <c r="AD3" t="n">
-        <v>302429.7174780917</v>
+        <v>362692.6998458839</v>
       </c>
       <c r="AE3" t="n">
-        <v>413797.6817110119</v>
+        <v>496252.1528017717</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.258816121722515e-06</v>
+        <v>3.256454820950868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.45486111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>374305.411737206</v>
+        <v>448890.5438326406</v>
       </c>
     </row>
     <row r="4">
@@ -2214,28 +2214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>255.4496131005812</v>
+        <v>307.1645685274648</v>
       </c>
       <c r="AB4" t="n">
-        <v>349.5174302856097</v>
+        <v>420.27611380365</v>
       </c>
       <c r="AC4" t="n">
-        <v>316.1599772900499</v>
+        <v>380.1655513634593</v>
       </c>
       <c r="AD4" t="n">
-        <v>255449.6131005812</v>
+        <v>307164.5685274648</v>
       </c>
       <c r="AE4" t="n">
-        <v>349517.4302856097</v>
+        <v>420276.11380365</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.518046914022499e-06</v>
+        <v>3.630178629279478e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.07175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>316159.9772900499</v>
+        <v>380165.5513634593</v>
       </c>
     </row>
     <row r="5">
@@ -2320,28 +2320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>238.9616231760016</v>
+        <v>290.7618299489055</v>
       </c>
       <c r="AB5" t="n">
-        <v>326.957835072033</v>
+        <v>397.833163242711</v>
       </c>
       <c r="AC5" t="n">
-        <v>295.753438181059</v>
+        <v>359.8645245051773</v>
       </c>
       <c r="AD5" t="n">
-        <v>238961.6231760016</v>
+        <v>290761.8299489055</v>
       </c>
       <c r="AE5" t="n">
-        <v>326957.835072033</v>
+        <v>397833.163242711</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.569409903258598e-06</v>
+        <v>3.70422682306906e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.8287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>295753.438181059</v>
+        <v>359864.5245051773</v>
       </c>
     </row>
   </sheetData>
@@ -2617,28 +2617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>378.9587182135768</v>
+        <v>446.2128553075805</v>
       </c>
       <c r="AB2" t="n">
-        <v>518.5080367385334</v>
+        <v>610.5281141536743</v>
       </c>
       <c r="AC2" t="n">
-        <v>469.0223574428072</v>
+        <v>552.2601678204369</v>
       </c>
       <c r="AD2" t="n">
-        <v>378958.7182135768</v>
+        <v>446212.8553075806</v>
       </c>
       <c r="AE2" t="n">
-        <v>518508.0367385334</v>
+        <v>610528.1141536743</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.921364313512214e-06</v>
+        <v>2.812805075268337e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.36574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>469022.3574428072</v>
+        <v>552260.1678204369</v>
       </c>
     </row>
     <row r="3">
@@ -2723,28 +2723,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.7288931717876</v>
+        <v>299.1481831557883</v>
       </c>
       <c r="AB3" t="n">
-        <v>340.3218447818015</v>
+        <v>409.3077416801596</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.8420055606368</v>
+        <v>370.2439852812279</v>
       </c>
       <c r="AD3" t="n">
-        <v>248728.8931717876</v>
+        <v>299148.1831557883</v>
       </c>
       <c r="AE3" t="n">
-        <v>340321.8447818015</v>
+        <v>409307.7416801596</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.522194737466168e-06</v>
+        <v>3.692398213325527e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.46527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>307842.0055606368</v>
+        <v>370243.9852812279</v>
       </c>
     </row>
     <row r="4">
@@ -2829,28 +2829,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>224.6141305515507</v>
+        <v>283.3654137274314</v>
       </c>
       <c r="AB4" t="n">
-        <v>307.326962696567</v>
+        <v>387.713060261636</v>
       </c>
       <c r="AC4" t="n">
-        <v>277.9961087129988</v>
+        <v>350.7102699489623</v>
       </c>
       <c r="AD4" t="n">
-        <v>224614.1305515507</v>
+        <v>283365.4137274314</v>
       </c>
       <c r="AE4" t="n">
-        <v>307326.962696567</v>
+        <v>387713.060261636</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.646066097138382e-06</v>
+        <v>3.873741223974808e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.88078703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>277996.1087129987</v>
+        <v>350710.2699489623</v>
       </c>
     </row>
   </sheetData>
@@ -3126,28 +3126,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.0501237152209</v>
+        <v>257.3358040003275</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.8221372062757</v>
+        <v>352.0981998875109</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.3071823572089</v>
+        <v>318.4944418632793</v>
       </c>
       <c r="AD2" t="n">
-        <v>203050.1237152209</v>
+        <v>257335.8040003275</v>
       </c>
       <c r="AE2" t="n">
-        <v>277822.1372062757</v>
+        <v>352098.1998875109</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.727042922834991e-06</v>
+        <v>4.219072008483233e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.86458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>251307.1823572089</v>
+        <v>318494.4418632793</v>
       </c>
     </row>
   </sheetData>
@@ -3423,28 +3423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.6756800078986</v>
+        <v>297.6553463895215</v>
       </c>
       <c r="AB2" t="n">
-        <v>330.6713273651695</v>
+        <v>407.2651765572434</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.1125199816589</v>
+        <v>368.3963597068846</v>
       </c>
       <c r="AD2" t="n">
-        <v>241675.6800078987</v>
+        <v>297655.3463895215</v>
       </c>
       <c r="AE2" t="n">
-        <v>330671.3273651695</v>
+        <v>407265.1765572434</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.528549695241673e-06</v>
+        <v>3.821381903318097e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.27546296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>299112.5199816589</v>
+        <v>368396.3597068846</v>
       </c>
     </row>
     <row r="3">
@@ -3529,28 +3529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.0317728218713</v>
+        <v>261.0753145463208</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.4794698732676</v>
+        <v>357.2147631922674</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.6610783626541</v>
+        <v>323.1226875472656</v>
       </c>
       <c r="AD3" t="n">
-        <v>213031.7728218713</v>
+        <v>261075.3145463208</v>
       </c>
       <c r="AE3" t="n">
-        <v>291479.4698732676</v>
+        <v>357214.7631922674</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.733104830227622e-06</v>
+        <v>4.130524845035674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.28009259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>263661.0783626541</v>
+        <v>323122.6875472656</v>
       </c>
     </row>
   </sheetData>
@@ -3826,28 +3826,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.6482433759377</v>
+        <v>258.5599248359283</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.3769991470165</v>
+        <v>353.7730960193462</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.5227732636066</v>
+        <v>320.0094882589178</v>
       </c>
       <c r="AD2" t="n">
-        <v>205648.2433759377</v>
+        <v>258559.9248359283</v>
       </c>
       <c r="AE2" t="n">
-        <v>281376.9991470166</v>
+        <v>353773.0960193462</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.66005979699359e-06</v>
+        <v>4.204192562741362e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.69791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>254522.7732636066</v>
+        <v>320009.4882589178</v>
       </c>
     </row>
   </sheetData>
@@ -4123,28 +4123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>400.5258414929272</v>
+        <v>476.7081445103186</v>
       </c>
       <c r="AB2" t="n">
-        <v>548.0171262836679</v>
+        <v>652.2531141980695</v>
       </c>
       <c r="AC2" t="n">
-        <v>495.7151408980214</v>
+        <v>590.0029924220005</v>
       </c>
       <c r="AD2" t="n">
-        <v>400525.8414929272</v>
+        <v>476708.1445103186</v>
       </c>
       <c r="AE2" t="n">
-        <v>548017.126283668</v>
+        <v>652253.1141980696</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.840679542470751e-06</v>
+        <v>2.683501467242445e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.92708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>495715.1408980214</v>
+        <v>590002.9924220005</v>
       </c>
     </row>
     <row r="3">
@@ -4229,28 +4229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.5283390829895</v>
+        <v>319.7622767955002</v>
       </c>
       <c r="AB3" t="n">
-        <v>356.4663672324831</v>
+        <v>437.5128540276404</v>
       </c>
       <c r="AC3" t="n">
-        <v>322.4457174475028</v>
+        <v>395.7572412923889</v>
       </c>
       <c r="AD3" t="n">
-        <v>260528.3390829895</v>
+        <v>319762.2767955002</v>
       </c>
       <c r="AE3" t="n">
-        <v>356466.3672324831</v>
+        <v>437512.8540276404</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.449196235629098e-06</v>
+        <v>3.570649610769929e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.71990740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>322445.7174475028</v>
+        <v>395757.2412923889</v>
       </c>
     </row>
     <row r="4">
@@ -4335,28 +4335,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>227.4001523121801</v>
+        <v>278.2452482268249</v>
       </c>
       <c r="AB4" t="n">
-        <v>311.1389205800638</v>
+        <v>380.7074239379464</v>
       </c>
       <c r="AC4" t="n">
-        <v>281.4442586862124</v>
+        <v>344.3732417235335</v>
       </c>
       <c r="AD4" t="n">
-        <v>227400.1523121801</v>
+        <v>278245.2482268249</v>
       </c>
       <c r="AE4" t="n">
-        <v>311138.9205800638</v>
+        <v>380707.4239379464</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.631880463189378e-06</v>
+        <v>3.836982441329897e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.84027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>281444.2586862124</v>
+        <v>344373.2417235335</v>
       </c>
     </row>
   </sheetData>
@@ -4632,28 +4632,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.7423395198513</v>
+        <v>262.7046220411398</v>
       </c>
       <c r="AB2" t="n">
-        <v>288.3469662267765</v>
+        <v>359.4440535866524</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.8275364676866</v>
+        <v>325.1392175952392</v>
       </c>
       <c r="AD2" t="n">
-        <v>210742.3395198513</v>
+        <v>262704.6220411398</v>
       </c>
       <c r="AE2" t="n">
-        <v>288346.9662267765</v>
+        <v>359444.0535866524</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.586427477322266e-06</v>
+        <v>4.144064364478936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.41550925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>260827.5364676866</v>
+        <v>325139.2175952392</v>
       </c>
     </row>
   </sheetData>
@@ -4929,28 +4929,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>303.3425257411385</v>
+        <v>369.1228874623501</v>
       </c>
       <c r="AB2" t="n">
-        <v>415.046626246771</v>
+        <v>505.0502191784772</v>
       </c>
       <c r="AC2" t="n">
-        <v>375.435158759377</v>
+        <v>456.8489351025172</v>
       </c>
       <c r="AD2" t="n">
-        <v>303342.5257411385</v>
+        <v>369122.8874623501</v>
       </c>
       <c r="AE2" t="n">
-        <v>415046.626246771</v>
+        <v>505050.2191784772</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.192086523286175e-06</v>
+        <v>3.254904761620673e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.78009259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>375435.158759377</v>
+        <v>456848.9351025172</v>
       </c>
     </row>
     <row r="3">
@@ -5035,28 +5035,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>223.2064458591921</v>
+        <v>272.5204714450117</v>
       </c>
       <c r="AB3" t="n">
-        <v>305.4009063978173</v>
+        <v>372.8745317857427</v>
       </c>
       <c r="AC3" t="n">
-        <v>276.2538725241641</v>
+        <v>337.2879098048028</v>
       </c>
       <c r="AD3" t="n">
-        <v>223206.4458591921</v>
+        <v>272520.4714450117</v>
       </c>
       <c r="AE3" t="n">
-        <v>305400.9063978173</v>
+        <v>372874.5317857427</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.690611141564224e-06</v>
+        <v>3.995135649672401e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.03703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>276253.8725241641</v>
+        <v>337287.9098048029</v>
       </c>
     </row>
     <row r="4">
@@ -5141,28 +5141,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>223.8489772609059</v>
+        <v>273.1630028467254</v>
       </c>
       <c r="AB4" t="n">
-        <v>306.2800462081265</v>
+        <v>373.7536715960524</v>
       </c>
       <c r="AC4" t="n">
-        <v>277.0491084648582</v>
+        <v>338.0831457454971</v>
       </c>
       <c r="AD4" t="n">
-        <v>223848.9772609058</v>
+        <v>273163.0028467254</v>
       </c>
       <c r="AE4" t="n">
-        <v>306280.0462081265</v>
+        <v>373753.6715960524</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.691002975420943e-06</v>
+        <v>3.995717461508956e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.03703703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>277049.1084648582</v>
+        <v>338083.1457454971</v>
       </c>
     </row>
   </sheetData>
@@ -5438,28 +5438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.3193580540985</v>
+        <v>417.1874070272722</v>
       </c>
       <c r="AB2" t="n">
-        <v>479.3224006889368</v>
+        <v>570.8142153041523</v>
       </c>
       <c r="AC2" t="n">
-        <v>433.5765435003984</v>
+        <v>516.3365077383061</v>
       </c>
       <c r="AD2" t="n">
-        <v>350319.3580540986</v>
+        <v>417187.4070272722</v>
       </c>
       <c r="AE2" t="n">
-        <v>479322.4006889368</v>
+        <v>570814.2153041523</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.005264382237708e-06</v>
+        <v>2.948625929552873e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.8275462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>433576.5435003984</v>
+        <v>516336.5077383061</v>
       </c>
     </row>
     <row r="3">
@@ -5544,28 +5544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>238.2759969683657</v>
+        <v>288.3417823522283</v>
       </c>
       <c r="AB3" t="n">
-        <v>326.0197310470525</v>
+        <v>394.5219473559723</v>
       </c>
       <c r="AC3" t="n">
-        <v>294.9048654875851</v>
+        <v>356.8693264153483</v>
       </c>
       <c r="AD3" t="n">
-        <v>238275.9969683657</v>
+        <v>288341.7823522283</v>
       </c>
       <c r="AE3" t="n">
-        <v>326019.7310470525</v>
+        <v>394521.9473559723</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.592057326430072e-06</v>
+        <v>3.811471201154158e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.24537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>294904.8654875851</v>
+        <v>356869.3264153483</v>
       </c>
     </row>
     <row r="4">
@@ -5650,28 +5650,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.4686373797451</v>
+        <v>279.8074985221315</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.0231601695398</v>
+        <v>382.8449637136037</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.1030550587249</v>
+        <v>346.3067777030578</v>
       </c>
       <c r="AD4" t="n">
-        <v>221468.6373797451</v>
+        <v>279807.4985221315</v>
       </c>
       <c r="AE4" t="n">
-        <v>303023.1601695399</v>
+        <v>382844.9637136037</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.664179274426423e-06</v>
+        <v>3.917522377166466e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.91550925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>274103.0550587249</v>
+        <v>346306.7777030579</v>
       </c>
     </row>
   </sheetData>
@@ -5947,28 +5947,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>464.9210587658745</v>
+        <v>542.0737642948167</v>
       </c>
       <c r="AB2" t="n">
-        <v>636.1255034729987</v>
+        <v>741.6892389148413</v>
       </c>
       <c r="AC2" t="n">
-        <v>575.4145782292865</v>
+        <v>670.9034589201929</v>
       </c>
       <c r="AD2" t="n">
-        <v>464921.0587658745</v>
+        <v>542073.7642948166</v>
       </c>
       <c r="AE2" t="n">
-        <v>636125.5034729987</v>
+        <v>741689.2389148413</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.690264676277771e-06</v>
+        <v>2.445428462626444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>575414.5782292865</v>
+        <v>670903.4589201929</v>
       </c>
     </row>
     <row r="3">
@@ -6053,28 +6053,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>291.1668593544879</v>
+        <v>351.0702336122</v>
       </c>
       <c r="AB3" t="n">
-        <v>398.3873423440651</v>
+        <v>480.3497817538229</v>
       </c>
       <c r="AC3" t="n">
-        <v>360.3658135308935</v>
+        <v>434.5058727583902</v>
       </c>
       <c r="AD3" t="n">
-        <v>291166.8593544879</v>
+        <v>351070.2336122</v>
       </c>
       <c r="AE3" t="n">
-        <v>398387.3423440651</v>
+        <v>480349.7817538229</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.319753143364713e-06</v>
+        <v>3.356155070070806e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.20601851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>360365.8135308935</v>
+        <v>434505.8727583902</v>
       </c>
     </row>
     <row r="4">
@@ -6159,28 +6159,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>238.4367959156567</v>
+        <v>298.3400806648206</v>
       </c>
       <c r="AB4" t="n">
-        <v>326.2397432606847</v>
+        <v>408.2020602010518</v>
       </c>
       <c r="AC4" t="n">
-        <v>295.1038800443374</v>
+        <v>369.2438284906524</v>
       </c>
       <c r="AD4" t="n">
-        <v>238436.7959156567</v>
+        <v>298340.0806648206</v>
       </c>
       <c r="AE4" t="n">
-        <v>326239.7432606848</v>
+        <v>408202.0602010518</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.566657037948305e-06</v>
+        <v>3.71336883654297e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.93865740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>295103.8800443374</v>
+        <v>369243.8284906524</v>
       </c>
     </row>
     <row r="5">
@@ -6265,28 +6265,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>235.086444027412</v>
+        <v>286.57841527739</v>
       </c>
       <c r="AB5" t="n">
-        <v>321.6556440000972</v>
+        <v>392.1092307299137</v>
       </c>
       <c r="AC5" t="n">
-        <v>290.9572807833551</v>
+        <v>354.6868760778117</v>
       </c>
       <c r="AD5" t="n">
-        <v>235086.444027412</v>
+        <v>286578.41527739</v>
       </c>
       <c r="AE5" t="n">
-        <v>321655.6440000972</v>
+        <v>392109.2307299137</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.591273313887707e-06</v>
+        <v>3.748982987788587e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.82291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>290957.2807833551</v>
+        <v>354686.8760778117</v>
       </c>
     </row>
   </sheetData>
@@ -6562,28 +6562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>259.3192168665249</v>
+        <v>315.9898814989175</v>
       </c>
       <c r="AB2" t="n">
-        <v>354.8119928732089</v>
+        <v>432.3512963565213</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.9492342551486</v>
+        <v>391.0882954411096</v>
       </c>
       <c r="AD2" t="n">
-        <v>259319.2168665249</v>
+        <v>315989.8814989175</v>
       </c>
       <c r="AE2" t="n">
-        <v>354811.9928732088</v>
+        <v>432351.2963565213</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.404697464687903e-06</v>
+        <v>3.611097184130344e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.78472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>320949.2342551486</v>
+        <v>391088.2954411096</v>
       </c>
     </row>
     <row r="3">
@@ -6668,28 +6668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.6306407890717</v>
+        <v>265.1202448422474</v>
       </c>
       <c r="AB3" t="n">
-        <v>296.4035997968379</v>
+        <v>362.7492152728843</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.1152562373802</v>
+        <v>328.1289392889607</v>
       </c>
       <c r="AD3" t="n">
-        <v>216630.6407890717</v>
+        <v>265120.2448422473</v>
       </c>
       <c r="AE3" t="n">
-        <v>296403.5997968379</v>
+        <v>362749.2152728844</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.72094828396976e-06</v>
+        <v>4.086006173621813e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.18171296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>268115.2562373802</v>
+        <v>328128.9392889607</v>
       </c>
     </row>
   </sheetData>
@@ -6965,28 +6965,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.7231399315802</v>
+        <v>261.6451430215741</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.8477200355351</v>
+        <v>357.994427651167</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.8531306146951</v>
+        <v>323.8279419244737</v>
       </c>
       <c r="AD2" t="n">
-        <v>206723.1399315802</v>
+        <v>261645.1430215741</v>
       </c>
       <c r="AE2" t="n">
-        <v>282847.7200355351</v>
+        <v>357994.427651167</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.728016549835139e-06</v>
+        <v>4.184086514205189e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>255853.1306146951</v>
+        <v>323827.9419244737</v>
       </c>
     </row>
     <row r="3">
@@ -7071,28 +7071,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.0035181367518</v>
+        <v>261.9255212267457</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.2313458652642</v>
+        <v>358.3780534808963</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.2001437336572</v>
+        <v>324.1749550434359</v>
       </c>
       <c r="AD3" t="n">
-        <v>207003.5181367518</v>
+        <v>261925.5212267457</v>
       </c>
       <c r="AE3" t="n">
-        <v>283231.3458652642</v>
+        <v>358378.0534808963</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.7342805836379e-06</v>
+        <v>4.19369395568506e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.62731481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>256200.1437336572</v>
+        <v>324174.9550434359</v>
       </c>
     </row>
   </sheetData>
@@ -11917,28 +11917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.8018490125543</v>
+        <v>253.8114990616532</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.3236573894092</v>
+        <v>347.2760903890586</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.1882065790069</v>
+        <v>314.1325477274845</v>
       </c>
       <c r="AD2" t="n">
-        <v>207801.8490125543</v>
+        <v>253811.4990616532</v>
       </c>
       <c r="AE2" t="n">
-        <v>284323.6573894091</v>
+        <v>347276.0903890586</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.707283238087957e-06</v>
+        <v>4.230076657360913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.19444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>257188.2065790069</v>
+        <v>314132.5477274844</v>
       </c>
     </row>
   </sheetData>
@@ -12214,28 +12214,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.1820279595784</v>
+        <v>276.5160772328986</v>
       </c>
       <c r="AB2" t="n">
-        <v>298.5262761658956</v>
+        <v>378.3414958984163</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.0353473529707</v>
+        <v>342.2331145354952</v>
       </c>
       <c r="AD2" t="n">
-        <v>218182.0279595784</v>
+        <v>276516.0772328986</v>
       </c>
       <c r="AE2" t="n">
-        <v>298526.2761658956</v>
+        <v>378341.4958984163</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.429697124141947e-06</v>
+        <v>3.959619413865209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.77546296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>270035.3473529707</v>
+        <v>342233.1145354952</v>
       </c>
     </row>
   </sheetData>
@@ -12511,28 +12511,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.2581603044341</v>
+        <v>396.4651332176115</v>
       </c>
       <c r="AB2" t="n">
-        <v>451.8737848902642</v>
+        <v>542.4610860755754</v>
       </c>
       <c r="AC2" t="n">
-        <v>408.7475850691769</v>
+        <v>490.6893613694377</v>
       </c>
       <c r="AD2" t="n">
-        <v>330258.1603044341</v>
+        <v>396465.1332176115</v>
       </c>
       <c r="AE2" t="n">
-        <v>451873.7848902642</v>
+        <v>542461.0860755754</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.097182938523895e-06</v>
+        <v>3.098337817463194e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.28356481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>408747.5850691769</v>
+        <v>490689.3613694377</v>
       </c>
     </row>
     <row r="3">
@@ -12617,28 +12617,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.6385289251192</v>
+        <v>277.3364514144286</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.4650779783208</v>
+        <v>379.4639680459401</v>
       </c>
       <c r="AC3" t="n">
-        <v>281.7392880801445</v>
+        <v>343.2484595166588</v>
       </c>
       <c r="AD3" t="n">
-        <v>227638.5289251192</v>
+        <v>277336.4514144286</v>
       </c>
       <c r="AE3" t="n">
-        <v>311465.0779783208</v>
+        <v>379463.9680459401</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.667842701668987e-06</v>
+        <v>3.941419597587489e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.01388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>281739.2880801446</v>
+        <v>343248.4595166589</v>
       </c>
     </row>
     <row r="4">
@@ -12723,28 +12723,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>218.5454632100752</v>
+        <v>276.455150975483</v>
       </c>
       <c r="AB4" t="n">
-        <v>299.0235443092568</v>
+        <v>378.2581339051434</v>
       </c>
       <c r="AC4" t="n">
-        <v>270.4851569226499</v>
+        <v>342.157708493861</v>
       </c>
       <c r="AD4" t="n">
-        <v>218545.4632100752</v>
+        <v>276455.150975483</v>
       </c>
       <c r="AE4" t="n">
-        <v>299023.5443092568</v>
+        <v>378258.1339051434</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.676096274247963e-06</v>
+        <v>3.953613267286432e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.97916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>270485.1569226499</v>
+        <v>342157.708493861</v>
       </c>
     </row>
   </sheetData>
@@ -13020,28 +13020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>432.1962033433695</v>
+        <v>508.9570489097294</v>
       </c>
       <c r="AB2" t="n">
-        <v>591.3499125651987</v>
+        <v>696.3774879185949</v>
       </c>
       <c r="AC2" t="n">
-        <v>534.9123068747903</v>
+        <v>629.9161978435864</v>
       </c>
       <c r="AD2" t="n">
-        <v>432196.2033433695</v>
+        <v>508957.0489097294</v>
       </c>
       <c r="AE2" t="n">
-        <v>591349.9125651987</v>
+        <v>696377.4879185949</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.763360671877999e-06</v>
+        <v>2.560697731079638e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.51736111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>534912.3068747902</v>
+        <v>629916.1978435863</v>
       </c>
     </row>
     <row r="3">
@@ -13126,28 +13126,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.1277335499259</v>
+        <v>330.7452725803009</v>
       </c>
       <c r="AB3" t="n">
-        <v>370.968926354427</v>
+        <v>452.5402733959819</v>
       </c>
       <c r="AC3" t="n">
-        <v>335.5641726813179</v>
+        <v>409.3504648473314</v>
       </c>
       <c r="AD3" t="n">
-        <v>271127.733549926</v>
+        <v>330745.2725803009</v>
       </c>
       <c r="AE3" t="n">
-        <v>370968.926354427</v>
+        <v>452540.2733959819</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.385808039662752e-06</v>
+        <v>3.464596512436371e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.94560185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>335564.1726813179</v>
+        <v>409350.4648473314</v>
       </c>
     </row>
     <row r="4">
@@ -13232,28 +13232,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>231.3918987780146</v>
+        <v>282.5657958222573</v>
       </c>
       <c r="AB4" t="n">
-        <v>316.6006041980411</v>
+        <v>386.6189877671245</v>
       </c>
       <c r="AC4" t="n">
-        <v>286.3846868852127</v>
+        <v>349.7206141977867</v>
       </c>
       <c r="AD4" t="n">
-        <v>231391.8987780146</v>
+        <v>282565.7958222573</v>
       </c>
       <c r="AE4" t="n">
-        <v>316600.6041980411</v>
+        <v>386618.9877671245</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.609197305950309e-06</v>
+        <v>3.788995483363214e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.84027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>286384.6868852127</v>
+        <v>349720.6141977867</v>
       </c>
     </row>
     <row r="5">
@@ -13338,28 +13338,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>232.1127304005477</v>
+        <v>283.2866274447905</v>
       </c>
       <c r="AB5" t="n">
-        <v>317.5868778248373</v>
+        <v>387.6052613939212</v>
       </c>
       <c r="AC5" t="n">
-        <v>287.2768319413115</v>
+        <v>350.6127592538857</v>
       </c>
       <c r="AD5" t="n">
-        <v>232112.7304005477</v>
+        <v>283286.6274447905</v>
       </c>
       <c r="AE5" t="n">
-        <v>317586.8778248373</v>
+        <v>387605.2613939212</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.60684864938719e-06</v>
+        <v>3.7855848370739e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.85185185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>287276.8319413115</v>
+        <v>350612.7592538857</v>
       </c>
     </row>
   </sheetData>
@@ -13635,28 +13635,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>243.4646884053414</v>
+        <v>314.5359872533838</v>
       </c>
       <c r="AB2" t="n">
-        <v>333.1191275800297</v>
+        <v>430.3620141084949</v>
       </c>
       <c r="AC2" t="n">
-        <v>301.3267055795226</v>
+        <v>389.2888674988598</v>
       </c>
       <c r="AD2" t="n">
-        <v>243464.6884053414</v>
+        <v>314535.9872533838</v>
       </c>
       <c r="AE2" t="n">
-        <v>333119.1275800297</v>
+        <v>430362.0141084949</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.124248869481622e-06</v>
+        <v>3.540996304713678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.68634259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>301326.7055795226</v>
+        <v>389288.8674988598</v>
       </c>
     </row>
   </sheetData>
@@ -13932,28 +13932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.0500006601848</v>
+        <v>273.562446636327</v>
       </c>
       <c r="AB2" t="n">
-        <v>298.345630590232</v>
+        <v>374.3002082112014</v>
       </c>
       <c r="AC2" t="n">
-        <v>269.8719423375107</v>
+        <v>338.5775216731652</v>
       </c>
       <c r="AD2" t="n">
-        <v>218050.0006601848</v>
+        <v>273562.446636327</v>
       </c>
       <c r="AE2" t="n">
-        <v>298345.630590232</v>
+        <v>374300.2082112014</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.646043742584986e-06</v>
+        <v>4.027031493205737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.8587962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>269871.9423375108</v>
+        <v>338577.5216731652</v>
       </c>
     </row>
     <row r="3">
@@ -14038,28 +14038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.6972774690728</v>
+        <v>257.2672719779468</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.9170662240182</v>
+        <v>352.0044313510702</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.534104114314</v>
+        <v>318.4096224643515</v>
       </c>
       <c r="AD3" t="n">
-        <v>209697.2774690728</v>
+        <v>257267.2719779468</v>
       </c>
       <c r="AE3" t="n">
-        <v>286917.0662240182</v>
+        <v>352004.4313510702</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.738752273623789e-06</v>
+        <v>4.168125220483795e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.42476851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>259534.104114314</v>
+        <v>318409.6224643515</v>
       </c>
     </row>
   </sheetData>
@@ -14335,28 +14335,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.7086371737905</v>
+        <v>341.7869338989883</v>
       </c>
       <c r="AB2" t="n">
-        <v>389.5509178397807</v>
+        <v>467.6479615359279</v>
       </c>
       <c r="AC2" t="n">
-        <v>352.3727249792983</v>
+        <v>423.0162964349745</v>
       </c>
       <c r="AD2" t="n">
-        <v>284708.6371737905</v>
+        <v>341786.9338989882</v>
       </c>
       <c r="AE2" t="n">
-        <v>389550.9178397807</v>
+        <v>467647.961535928</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.297513476402636e-06</v>
+        <v>3.429982438579668e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.25925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>352372.7249792982</v>
+        <v>423016.2964349745</v>
       </c>
     </row>
     <row r="3">
@@ -14441,28 +14441,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>219.8591741430344</v>
+        <v>268.7712497152036</v>
       </c>
       <c r="AB3" t="n">
-        <v>300.8210215645666</v>
+        <v>367.7446812110302</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.1110854714887</v>
+        <v>332.6476449691504</v>
       </c>
       <c r="AD3" t="n">
-        <v>219859.1741430344</v>
+        <v>268771.2497152036</v>
       </c>
       <c r="AE3" t="n">
-        <v>300821.0215645666</v>
+        <v>367744.6812110302</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.704355387823165e-06</v>
+        <v>4.037361078915465e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.11226851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>272111.0854714887</v>
+        <v>332647.6449691504</v>
       </c>
     </row>
   </sheetData>
